--- a/Levi Ladapo Florida study/digitized_pfizer_moderna_curves.xlsx
+++ b/Levi Ladapo Florida study/digitized_pfizer_moderna_curves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\Levi Ladapo Florida study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B4F63-9DCC-49C4-BE87-E6CA0502CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C89C8-3978-4FB0-9F60-28D801F8B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9A48894-D5FE-4209-AC53-ABCB4FE5876C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Moderna</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Note: the curves in the study were actually from the FULL COHORT RAW data showing MODERNA was more deadly</t>
   </si>
 </sst>
 </file>
@@ -9304,15 +9307,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A9ACF-2C90-44E2-B457-E5D5E9A862D9}">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:R367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9326,7 +9329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>0.35930309799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9353,8 +9356,11 @@
       <c r="D3">
         <v>0.18819059699999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>-4.3475185999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>-0.37474716000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>-0.88745678699999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9410,7 +9416,7 @@
         <v>-1.7868785920000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9424,7 +9430,7 @@
         <v>-3.7754299200000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9438,7 +9444,7 @@
         <v>-11.86725577</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9452,7 +9458,7 @@
         <v>26.496837920000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9466,7 +9472,7 @@
         <v>7.9563515020000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9480,7 +9486,7 @@
         <v>5.2059832479999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9494,7 +9500,7 @@
         <v>4.098427311</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9508,7 +9514,7 @@
         <v>3.5002838729999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9522,7 +9528,7 @@
         <v>3.125813784</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
